--- a/va_facility_data_2025-02-20/Fort Detrick VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Detrick%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Detrick VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Detrick%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb1835075087a4f31a6a8283cdba215fa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdbc0409ff92a44bf93ccd9a37f36a36d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R69ef8fb82d244def9ed29872669805c3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R52bdcc0dd2e047c3aaa5a86ad53f7051"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f3d3ac10cb74da8b781ea4a0a7f838e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5166534c3d4343a9a2751abb3af78669"/>
   </x:sheets>
 </x:workbook>
 </file>
